--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47134.09945052215</v>
+        <v>-49572.57255026841</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>175.5903906093048</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>282.6988068886403</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>72.45797022779129</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>202.2865674686291</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>122.743356319675</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>6.686682526452482</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>190.4582931592616</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>116.6532574629628</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>75.45713216103701</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>234.8621962514513</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1.799239849288661</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>74.7576914549238</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182161</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1576,22 +1576,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238295</v>
       </c>
       <c r="W13" t="n">
-        <v>139.1630968205425</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4706806359725</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>135.0949745400635</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520965</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238289</v>
+        <v>218.0379183711101</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>107.3870054807219</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>114.5120075176636</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>53.08838020946216</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>106.2078024559162</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>80.67842139643618</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.453391420151112</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>7.602497644399286</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634823</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.95497330697962</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>48.4745767553171</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3083,13 +3083,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>95.25381996636072</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>7.069540131684027</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>10.63412424768206</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>115.8627380890762</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>261.7047073980814</v>
       </c>
       <c r="X40" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>249.7682289193606</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.99884436925691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4141,16 +4141,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>73.44478684180565</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1767.878520285687</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1398.916003345275</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1040.650304738525</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>654.8620521402806</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>243.8761473506731</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2884.252265792693</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066531</v>
+        <v>2531.483610522579</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.721789066531</v>
+        <v>2158.017852261499</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>1767.878520285687</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>604.8580214762837</v>
+        <v>1851.933282277244</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8580214762837</v>
+        <v>1851.933282277244</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>1851.933282277244</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>1851.933282277244</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>1851.933282277244</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1684.230445651963</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1538.013258869821</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399795</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797168</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396716</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102581</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022994</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456654</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>3133.919937435995</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>3133.919937435995</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>2844.817070561639</v>
       </c>
       <c r="V4" t="n">
-        <v>1122.264742411262</v>
+        <v>2590.132582355752</v>
       </c>
       <c r="W4" t="n">
-        <v>832.8475723743011</v>
+        <v>2300.715412318791</v>
       </c>
       <c r="X4" t="n">
-        <v>604.8580214762837</v>
+        <v>2072.725861420774</v>
       </c>
       <c r="Y4" t="n">
-        <v>604.8580214762837</v>
+        <v>1851.933282277244</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1678.621321342321</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1678.621321342321</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>934.567370137326</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477183</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>3091.331964934574</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V5" t="n">
-        <v>3091.331964934574</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W5" t="n">
-        <v>3091.331964934574</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X5" t="n">
-        <v>2717.866206673495</v>
+        <v>2065.221161406443</v>
       </c>
       <c r="Y5" t="n">
-        <v>2327.726874697683</v>
+        <v>2065.221161406443</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>844.171363847817</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199101</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1543.226549613035</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U7" t="n">
-        <v>1543.226549613035</v>
+        <v>1527.946633477934</v>
       </c>
       <c r="V7" t="n">
-        <v>1543.226549613035</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="W7" t="n">
-        <v>1253.809379576074</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="X7" t="n">
-        <v>1025.819828678057</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y7" t="n">
-        <v>1025.819828678057</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943747</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943747</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.370295943747</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>601.3302584915489</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,16 +4887,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142.0249360836216</v>
+        <v>630.9252167254034</v>
       </c>
       <c r="C10" t="n">
-        <v>142.0249360836216</v>
+        <v>461.9890337974965</v>
       </c>
       <c r="D10" t="n">
-        <v>142.0249360836216</v>
+        <v>311.8723943851608</v>
       </c>
       <c r="E10" t="n">
-        <v>142.0249360836216</v>
+        <v>311.8723943851608</v>
       </c>
       <c r="F10" t="n">
-        <v>142.0249360836216</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0249360836216</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.0249360836216</v>
+        <v>812.5736815556431</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5054,34 +5054,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1522.21291626627</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>2074.122646505557</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656197</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377128</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1836.157664970973</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637407</v>
+        <v>1546.740494934012</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739389</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595859</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,13 +5276,13 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5361,19 +5361,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444888</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703092</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703092</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579735</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>397.4723325755804</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>397.4723325755804</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>230.2762332904603</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703092</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359455</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X19" t="n">
-        <v>983.340348461438</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y19" t="n">
-        <v>874.8686257536381</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235163</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602302</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396415</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359455</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359455</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159245</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5966,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,16 +6145,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782948</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038335</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2156.827640693835</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1323.650755795185</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>1095.661204897168</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>874.8686257536381</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2372.238089282765</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2152.636624305706</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1863.561397649904</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1608.876909444017</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,64 +6449,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D31" t="n">
         <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="32">
@@ -6692,43 +6692,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6737,10 +6737,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1053.171308869725</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>884.2351259418183</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>734.1184865294825</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>586.2053929470894</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>439.315445449179</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>272.119346164059</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W34" t="n">
-        <v>1683.601903741512</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X34" t="n">
-        <v>1455.612352843495</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y34" t="n">
-        <v>1234.819773699965</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647277</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368208</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D37" t="n">
-        <v>481.447947124485</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E37" t="n">
-        <v>333.5348535420919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>186.6449060441816</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7254,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,7 +7427,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1725.169940187922</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1470.485451982035</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.329899359456</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1970.320130882545</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1715.635642676658</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1426.218472639697</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1198.22892174168</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>2.345373895096259e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>235.3313350441487</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>197.624429909038</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>126.7819002027431</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.5391317674133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>23.89445018204682</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>49.8510758551989</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>147.3599015160485</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>40.2389747530647</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5.199738306160356</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>75.37549921168767</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892381</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>34.09972495271791</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>111.1976478713729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.31997266427372</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>111.1976478713721</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>205.8445769401548</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>176.3785887617862</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>173.4237883572453</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>100.1408962628953</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>45.04089287986316</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.1149342575601</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>154.8900140445868</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25363,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>24.81829093850962</v>
       </c>
       <c r="X40" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.5858089828379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,16 +26029,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>212.7396875474385</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1018732.950875932</v>
+        <v>1018732.950875931</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1100626.90095173</v>
+        <v>1100626.900951731</v>
       </c>
     </row>
     <row r="7">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794695</v>
+        <v>298593.7657794692</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="F2" t="n">
         <v>322858.6398760024</v>
@@ -26329,22 +26329,22 @@
         <v>322858.6398760024</v>
       </c>
       <c r="H2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="I2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="K2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="L2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="N2" t="n">
         <v>322858.6398760024</v>
@@ -26353,7 +26353,7 @@
         <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7.254361662489829e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.252917000187906e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48409.12727549209</v>
+        <v>48409.12727549193</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815729</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680592</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26442,19 +26442,19 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
+        <v>11776.9762168058</v>
+      </c>
+      <c r="O4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11776.97621680584</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26470,7 +26470,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1186494.047785009</v>
+        <v>-1186680.441173547</v>
       </c>
       <c r="C6" t="n">
         <v>129518.7563961628</v>
       </c>
       <c r="D6" t="n">
-        <v>129518.7563961628</v>
+        <v>129518.7563961622</v>
       </c>
       <c r="E6" t="n">
-        <v>-115453.3279720655</v>
+        <v>-115488.0658975013</v>
       </c>
       <c r="F6" t="n">
-        <v>209959.1338352895</v>
+        <v>209924.3959098538</v>
       </c>
       <c r="G6" t="n">
-        <v>209959.1338352895</v>
+        <v>209924.3959098537</v>
       </c>
       <c r="H6" t="n">
-        <v>209959.1338352894</v>
+        <v>209924.3959098539</v>
       </c>
       <c r="I6" t="n">
-        <v>209959.1338352894</v>
+        <v>209924.3959098536</v>
       </c>
       <c r="J6" t="n">
-        <v>-7572.068561988126</v>
+        <v>-7606.806487423353</v>
       </c>
       <c r="K6" t="n">
-        <v>209959.1338352894</v>
+        <v>209924.3959098538</v>
       </c>
       <c r="L6" t="n">
-        <v>209959.1338352895</v>
+        <v>209924.3959098539</v>
       </c>
       <c r="M6" t="n">
-        <v>124904.1058997776</v>
+        <v>124869.3679743422</v>
       </c>
       <c r="N6" t="n">
-        <v>209959.1338352895</v>
+        <v>209924.3959098537</v>
       </c>
       <c r="O6" t="n">
-        <v>209959.1338352894</v>
+        <v>209924.3959098538</v>
       </c>
       <c r="P6" t="n">
-        <v>209959.1338352895</v>
+        <v>209924.3959098539</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022922</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26972,13 +26972,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>96.98333447828247</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>222.4590685146699</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>128.2518156392269</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>363.0444181520165</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>29.09065611690761</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>169.5585807426501</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>306.4732379112248</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>176.0595294020021</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6218081736426</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>21.59472895491429</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>6.00905762951896e-12</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-1.736439038534721e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29803,13 +29803,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>345.1232217852619</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32081,31 +32081,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704916</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>369.1789913099997</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32810,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,10 +33509,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,28 +33974,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>393.3904345522228</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>279.0775374915855</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>211.1488143709317</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561613</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>226.5827468655553</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295248</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,19 +36677,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,10 +37157,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,28 +37622,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>254.8360547723487</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>136.4812930471411</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
